--- a/data/Target.xlsx
+++ b/data/Target.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFDC9B-485B-4082-A839-53609B542790}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2344,12 +2343,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2357,8 +2356,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2408,74 +2414,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2495,7 +2433,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2749,16 +2687,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C771"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="B583" sqref="B583"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2707,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2780,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2791,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2802,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2813,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2824,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2835,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2846,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2857,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2868,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2879,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2890,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2901,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2912,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2923,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2934,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2945,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2956,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2967,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2978,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2989,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3000,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3011,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3022,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3033,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3044,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3055,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3066,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3077,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3088,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3099,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3110,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3121,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3132,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3143,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3154,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3165,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3176,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3187,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3198,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3209,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3220,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3231,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3242,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3253,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3264,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3275,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3286,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3297,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3308,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3319,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3330,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3341,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3352,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3363,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3374,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3385,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3396,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3407,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3418,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3429,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3440,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3451,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3462,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3473,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3484,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3495,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3506,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3517,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3528,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3539,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3550,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3561,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3572,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3583,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3594,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3605,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3616,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3627,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3638,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3649,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3660,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3671,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3682,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3693,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3704,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3715,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3726,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3737,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3748,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3759,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3770,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3781,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3792,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3803,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3814,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3825,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3836,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3847,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3858,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3869,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3880,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3891,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3902,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3913,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3924,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3935,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3946,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3957,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3968,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3979,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3990,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4001,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4012,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4023,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4034,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4045,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4056,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4067,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4078,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4089,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4100,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4111,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4122,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4133,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4144,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4155,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4166,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4177,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4188,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4199,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4210,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4221,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4232,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4243,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4254,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4265,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4276,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4287,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4298,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4309,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4320,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4331,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4342,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4353,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4364,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4375,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4386,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4397,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4408,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4419,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4430,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4441,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4452,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4463,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4474,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4485,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4496,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4507,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4518,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4529,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4540,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4551,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4562,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4573,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4584,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4595,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4606,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4617,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4628,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4639,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4650,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4661,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4672,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4683,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4694,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4705,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4716,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4727,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4738,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4749,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4760,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4771,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4782,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4793,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4804,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4815,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4826,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4837,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4848,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4859,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4870,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4881,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4892,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4903,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4914,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4925,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4936,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4947,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4958,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4969,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4980,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4991,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -5002,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -5013,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -5024,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -5035,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -5046,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -5057,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -5068,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -5079,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -5090,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -5101,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -5112,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -5123,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -5134,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -5145,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -5156,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -5167,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -5178,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -5189,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -5200,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -5211,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -5222,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -5233,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -5244,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -5255,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5266,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5277,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5288,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5299,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5310,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5321,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5332,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5343,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5354,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5365,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -5376,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5387,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5398,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5409,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5420,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5431,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5442,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5453,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5464,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5475,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5486,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5497,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5508,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5519,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5530,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5541,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -5552,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -5563,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5574,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -5585,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5596,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5607,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5618,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5629,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5640,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5651,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5662,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5673,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5684,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5695,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5706,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5717,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5728,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5739,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5750,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5761,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5772,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5783,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5794,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5805,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5816,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5827,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5838,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5849,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5860,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5871,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5882,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5893,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5904,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5915,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5926,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5937,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5948,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5959,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5970,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5981,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -5992,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -6003,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -6014,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -6025,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -6036,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -6047,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -6058,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -6069,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -6080,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -6091,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -6102,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -6113,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -6124,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -6135,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -6146,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -6157,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -6168,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -6179,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -6190,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -6201,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -6212,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -6223,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -6234,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -6245,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -6256,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -6267,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -6278,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -6289,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -6300,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -6311,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -6322,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -6333,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -6344,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -6355,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -6366,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -6377,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -6388,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -6399,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -6410,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -6421,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -6432,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -6443,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -6454,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -6465,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -6476,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -6487,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -6498,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -6509,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -6520,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -6531,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -6542,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -6553,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -6564,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -6575,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -6586,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -6597,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -6608,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -6619,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -6630,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -6641,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -6652,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -6663,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -6674,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -6685,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -6696,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -6707,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -6718,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -6729,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -6740,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -6751,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -6762,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -6773,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -6784,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -6795,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -6806,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -6817,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -6828,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -6839,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -6850,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -6861,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -6872,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -6883,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -6894,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -6905,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -6916,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -6927,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -6938,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -6949,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -6960,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6971,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6982,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -6993,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -7004,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -7015,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -7026,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -7037,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -7048,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -7059,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -7070,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -7081,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -7092,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -7103,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -7114,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -7125,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -7136,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -7147,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -7158,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -7169,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -7180,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -7191,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -7202,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -7213,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -7224,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -7235,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -7246,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -7257,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -7268,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -7279,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -7290,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -7301,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -7312,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -7323,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -7334,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -7345,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -7356,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -7367,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -7378,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -7389,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -7400,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -7411,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -7422,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -7433,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -7444,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -7455,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -7466,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -7477,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -7488,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -7499,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -7510,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -7521,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -7532,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -7543,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -7554,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -7565,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -7576,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -7587,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -7598,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -7609,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -7620,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -7631,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -7642,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -7653,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -7664,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -7675,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -7686,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -7697,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -7708,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -7719,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -7730,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -7741,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -7752,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -7763,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -7774,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -7785,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -7796,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -7807,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -7818,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -7829,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -7840,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -7851,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -7862,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -7873,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -7884,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -7895,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -7906,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -7917,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -7928,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -7939,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -7950,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -7961,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -7972,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -7983,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -7994,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -8005,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -8016,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -8027,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -8038,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -8049,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -8060,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -8071,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -8082,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -8093,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -8104,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -8115,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -8126,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -8137,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -8148,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -8159,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -8170,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -8181,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -8192,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -8203,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -8214,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -8225,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -8236,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -8247,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -8258,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -8269,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>501</v>
       </c>
@@ -8280,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -8291,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -8302,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>504</v>
       </c>
@@ -8313,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>505</v>
       </c>
@@ -8324,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>506</v>
       </c>
@@ -8335,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -8346,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>508</v>
       </c>
@@ -8357,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>509</v>
       </c>
@@ -8368,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -8379,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -8390,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>512</v>
       </c>
@@ -8401,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -8412,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>514</v>
       </c>
@@ -8423,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -8434,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -8445,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>517</v>
       </c>
@@ -8456,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>518</v>
       </c>
@@ -8467,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>519</v>
       </c>
@@ -8478,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>520</v>
       </c>
@@ -8489,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -8500,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>522</v>
       </c>
@@ -8511,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>523</v>
       </c>
@@ -8522,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>524</v>
       </c>
@@ -8533,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -8544,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -8555,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>527</v>
       </c>
@@ -8566,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>528</v>
       </c>
@@ -8577,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>529</v>
       </c>
@@ -8588,7 +8526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>530</v>
       </c>
@@ -8599,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>531</v>
       </c>
@@ -8610,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>532</v>
       </c>
@@ -8621,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>533</v>
       </c>
@@ -8632,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>534</v>
       </c>
@@ -8643,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>535</v>
       </c>
@@ -8654,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>536</v>
       </c>
@@ -8665,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>537</v>
       </c>
@@ -8676,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>538</v>
       </c>
@@ -8687,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>539</v>
       </c>
@@ -8698,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>540</v>
       </c>
@@ -8709,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>541</v>
       </c>
@@ -8720,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>542</v>
       </c>
@@ -8731,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>543</v>
       </c>
@@ -8742,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>544</v>
       </c>
@@ -8753,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>545</v>
       </c>
@@ -8764,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>546</v>
       </c>
@@ -8775,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>547</v>
       </c>
@@ -8786,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>548</v>
       </c>
@@ -8797,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>549</v>
       </c>
@@ -8808,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>550</v>
       </c>
@@ -8819,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>551</v>
       </c>
@@ -8830,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>552</v>
       </c>
@@ -8841,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>553</v>
       </c>
@@ -8852,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>554</v>
       </c>
@@ -8863,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>555</v>
       </c>
@@ -8874,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>556</v>
       </c>
@@ -8885,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>557</v>
       </c>
@@ -8896,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>558</v>
       </c>
@@ -8907,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>559</v>
       </c>
@@ -8918,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>560</v>
       </c>
@@ -8929,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>561</v>
       </c>
@@ -8940,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>562</v>
       </c>
@@ -8951,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>563</v>
       </c>
@@ -8962,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>564</v>
       </c>
@@ -8973,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>565</v>
       </c>
@@ -8984,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>566</v>
       </c>
@@ -8995,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>567</v>
       </c>
@@ -9006,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>568</v>
       </c>
@@ -9017,7 +8955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>569</v>
       </c>
@@ -9028,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>570</v>
       </c>
@@ -9039,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>571</v>
       </c>
@@ -9050,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>572</v>
       </c>
@@ -9061,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>573</v>
       </c>
@@ -9072,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>574</v>
       </c>
@@ -9083,7 +9021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>575</v>
       </c>
@@ -9094,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>576</v>
       </c>
@@ -9105,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>577</v>
       </c>
@@ -9116,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>578</v>
       </c>
@@ -9127,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>579</v>
       </c>
@@ -9138,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>580</v>
       </c>
@@ -9149,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>581</v>
       </c>
@@ -9160,18 +9098,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>582</v>
       </c>
       <c r="B583">
-        <v>-31</v>
+        <v>31</v>
       </c>
       <c r="C583" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>583</v>
       </c>
@@ -9182,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>584</v>
       </c>
@@ -9193,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>585</v>
       </c>
@@ -9204,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>586</v>
       </c>
@@ -9215,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>587</v>
       </c>
@@ -9226,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>588</v>
       </c>
@@ -9237,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>589</v>
       </c>
@@ -9248,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>590</v>
       </c>
@@ -9259,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>591</v>
       </c>
@@ -9270,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>592</v>
       </c>
@@ -9281,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>593</v>
       </c>
@@ -9292,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>594</v>
       </c>
@@ -9303,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>595</v>
       </c>
@@ -9314,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>596</v>
       </c>
@@ -9325,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>597</v>
       </c>
@@ -9336,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>598</v>
       </c>
@@ -9347,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>599</v>
       </c>
@@ -9358,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>600</v>
       </c>
@@ -9369,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>601</v>
       </c>
@@ -9380,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>602</v>
       </c>
@@ -9391,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>603</v>
       </c>
@@ -9402,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>604</v>
       </c>
@@ -9413,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>605</v>
       </c>
@@ -9424,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>606</v>
       </c>
@@ -9435,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>607</v>
       </c>
@@ -9446,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>608</v>
       </c>
@@ -9457,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>609</v>
       </c>
@@ -9468,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>610</v>
       </c>
@@ -9479,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>611</v>
       </c>
@@ -9490,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>612</v>
       </c>
@@ -9501,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>613</v>
       </c>
@@ -9512,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>614</v>
       </c>
@@ -9523,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>615</v>
       </c>
@@ -9534,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>616</v>
       </c>
@@ -9545,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>617</v>
       </c>
@@ -9556,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>618</v>
       </c>
@@ -9567,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>619</v>
       </c>
@@ -9578,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>620</v>
       </c>
@@ -9589,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>621</v>
       </c>
@@ -9600,7 +9538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>622</v>
       </c>
@@ -9611,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>623</v>
       </c>
@@ -9622,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>624</v>
       </c>
@@ -9633,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>625</v>
       </c>
@@ -9644,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>626</v>
       </c>
@@ -9655,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>627</v>
       </c>
@@ -9666,7 +9604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>628</v>
       </c>
@@ -9677,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>629</v>
       </c>
@@ -9688,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>630</v>
       </c>
@@ -9699,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>631</v>
       </c>
@@ -9710,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>632</v>
       </c>
@@ -9721,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>633</v>
       </c>
@@ -9732,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>634</v>
       </c>
@@ -9743,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>635</v>
       </c>
@@ -9754,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>636</v>
       </c>
@@ -9765,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>637</v>
       </c>
@@ -9776,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>638</v>
       </c>
@@ -9787,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>639</v>
       </c>
@@ -9798,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>640</v>
       </c>
@@ -9809,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>641</v>
       </c>
@@ -9820,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>642</v>
       </c>
@@ -9831,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>643</v>
       </c>
@@ -9842,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>644</v>
       </c>
@@ -9853,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>645</v>
       </c>
@@ -9864,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>646</v>
       </c>
@@ -9875,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>647</v>
       </c>
@@ -9886,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>648</v>
       </c>
@@ -9897,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>649</v>
       </c>
@@ -9908,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>650</v>
       </c>
@@ -9919,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>651</v>
       </c>
@@ -9930,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>652</v>
       </c>
@@ -9941,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>653</v>
       </c>
@@ -9952,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>654</v>
       </c>
@@ -9963,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>655</v>
       </c>
@@ -9974,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>656</v>
       </c>
@@ -9985,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>657</v>
       </c>
@@ -9996,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>658</v>
       </c>
@@ -10007,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>659</v>
       </c>
@@ -10018,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>660</v>
       </c>
@@ -10029,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>661</v>
       </c>
@@ -10040,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>662</v>
       </c>
@@ -10051,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>663</v>
       </c>
@@ -10062,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>664</v>
       </c>
@@ -10073,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>665</v>
       </c>
@@ -10084,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>666</v>
       </c>
@@ -10095,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>667</v>
       </c>
@@ -10106,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>668</v>
       </c>
@@ -10117,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>669</v>
       </c>
@@ -10128,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>670</v>
       </c>
@@ -10139,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>671</v>
       </c>
@@ -10150,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>672</v>
       </c>
@@ -10161,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>673</v>
       </c>
@@ -10172,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>674</v>
       </c>
@@ -10183,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>675</v>
       </c>
@@ -10194,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>676</v>
       </c>
@@ -10205,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>677</v>
       </c>
@@ -10216,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>678</v>
       </c>
@@ -10227,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>679</v>
       </c>
@@ -10238,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>680</v>
       </c>
@@ -10249,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>681</v>
       </c>
@@ -10260,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>682</v>
       </c>
@@ -10271,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>683</v>
       </c>
@@ -10282,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>684</v>
       </c>
@@ -10293,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>685</v>
       </c>
@@ -10304,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>686</v>
       </c>
@@ -10315,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>687</v>
       </c>
@@ -10326,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>688</v>
       </c>
@@ -10337,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>689</v>
       </c>
@@ -10348,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>690</v>
       </c>
@@ -10359,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>691</v>
       </c>
@@ -10370,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>692</v>
       </c>
@@ -10381,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>693</v>
       </c>
@@ -10392,7 +10330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>694</v>
       </c>
@@ -10403,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>695</v>
       </c>
@@ -10414,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>696</v>
       </c>
@@ -10425,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>697</v>
       </c>
@@ -10436,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>698</v>
       </c>
@@ -10447,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>699</v>
       </c>
@@ -10458,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>700</v>
       </c>
@@ -10469,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>701</v>
       </c>
@@ -10480,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>702</v>
       </c>
@@ -10491,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>703</v>
       </c>
@@ -10502,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>704</v>
       </c>
@@ -10513,7 +10451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>705</v>
       </c>
@@ -10524,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>706</v>
       </c>
@@ -10535,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>707</v>
       </c>
@@ -10546,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>708</v>
       </c>
@@ -10557,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>709</v>
       </c>
@@ -10568,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>710</v>
       </c>
@@ -10579,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>711</v>
       </c>
@@ -10590,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>712</v>
       </c>
@@ -10601,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>713</v>
       </c>
@@ -10612,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>714</v>
       </c>
@@ -10623,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>715</v>
       </c>
@@ -10634,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>716</v>
       </c>
@@ -10645,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>717</v>
       </c>
@@ -10656,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>718</v>
       </c>
@@ -10667,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>719</v>
       </c>
@@ -10678,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>720</v>
       </c>
@@ -10689,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>721</v>
       </c>
@@ -10700,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>722</v>
       </c>
@@ -10711,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>723</v>
       </c>
@@ -10722,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>724</v>
       </c>
@@ -10733,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>725</v>
       </c>
@@ -10744,7 +10682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>726</v>
       </c>
@@ -10755,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>727</v>
       </c>
@@ -10766,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>728</v>
       </c>
@@ -10777,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>729</v>
       </c>
@@ -10788,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>730</v>
       </c>
@@ -10799,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>731</v>
       </c>
@@ -10810,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>732</v>
       </c>
@@ -10821,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>733</v>
       </c>
@@ -10832,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>734</v>
       </c>
@@ -10843,7 +10781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>735</v>
       </c>
@@ -10854,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>736</v>
       </c>
@@ -10865,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>737</v>
       </c>
@@ -10876,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>738</v>
       </c>
@@ -10887,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>739</v>
       </c>
@@ -10898,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>740</v>
       </c>
@@ -10909,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>741</v>
       </c>
@@ -10920,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>742</v>
       </c>
@@ -10931,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>743</v>
       </c>
@@ -10942,7 +10880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>744</v>
       </c>
@@ -10953,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>745</v>
       </c>
@@ -10964,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>746</v>
       </c>
@@ -10975,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>747</v>
       </c>
@@ -10986,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>748</v>
       </c>
@@ -10997,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>749</v>
       </c>
@@ -11008,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>750</v>
       </c>
@@ -11019,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>751</v>
       </c>
@@ -11030,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>752</v>
       </c>
@@ -11041,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>753</v>
       </c>
@@ -11052,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>754</v>
       </c>
@@ -11063,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>755</v>
       </c>
@@ -11074,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>756</v>
       </c>
@@ -11085,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>757</v>
       </c>
@@ -11096,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>758</v>
       </c>
@@ -11107,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>759</v>
       </c>
@@ -11118,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>760</v>
       </c>
@@ -11129,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>761</v>
       </c>
@@ -11140,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>762</v>
       </c>
@@ -11151,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>763</v>
       </c>
@@ -11162,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>764</v>
       </c>
@@ -11173,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>765</v>
       </c>
@@ -11184,7 +11122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>766</v>
       </c>
@@ -11195,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>767</v>
       </c>
@@ -11206,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>768</v>
       </c>
@@ -11217,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>769</v>
       </c>
@@ -11228,7 +11166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>770</v>
       </c>
@@ -11240,6 +11178,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>